--- a/DOC/基本設計/TEMP基本設計_emsm_○○機能.xlsx
+++ b/DOC/基本設計/TEMP基本設計_emsm_○○機能.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>No</t>
   </si>
@@ -394,28 +394,20 @@
   </si>
   <si>
     <t>発生日の項目は日付ではない内容が入力された場合</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>精算日の項目は日付ではない内容が入力された場合</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">”場所の長さが15文字を越えています”メッセージを画面に表示する
 </t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">”備考の長さが30文字を越えています”メッセージを画面に表示する
 </t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>経費管理機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3168,7 +3160,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3179,19 +3171,13 @@
     <xdr:ext cx="3752850" cy="2943225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3199,7 +3185,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466725" y="1028700"/>
+          <a:off x="495300" y="1028700"/>
           <a:ext cx="3752850" cy="2943225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3516,15 +3502,35 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="21" width="5.75" style="8"/>
+    <col min="1" max="1" width="5.75" style="8"/>
+    <col min="2" max="2" width="5.75" style="8"/>
+    <col min="3" max="3" width="5.75" style="8"/>
+    <col min="4" max="4" width="5.75" style="8"/>
+    <col min="5" max="5" width="5.75" style="8"/>
+    <col min="6" max="6" width="5.75" style="8"/>
+    <col min="7" max="7" width="5.75" style="8"/>
+    <col min="8" max="8" width="5.75" style="8"/>
+    <col min="9" max="9" width="5.75" style="8"/>
+    <col min="10" max="10" width="5.75" style="8"/>
+    <col min="11" max="11" width="5.75" style="8"/>
+    <col min="12" max="12" width="5.75" style="8"/>
+    <col min="13" max="13" width="5.75" style="8"/>
+    <col min="14" max="14" width="5.75" style="8"/>
+    <col min="15" max="15" width="5.75" style="8"/>
+    <col min="16" max="16" width="5.75" style="8"/>
+    <col min="17" max="17" width="5.75" style="8"/>
+    <col min="18" max="18" width="5.75" style="8"/>
+    <col min="19" max="19" width="5.75" style="8"/>
+    <col min="20" max="20" width="5.75" style="8"/>
+    <col min="21" max="21" width="5.75" style="8"/>
     <col min="22" max="22" width="5.75" style="13"/>
     <col min="23" max="23" width="5.75" style="8"/>
     <col min="24" max="16384" width="5.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="1" s="4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3550,60 +3556,60 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" customFormat="1" s="4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" customFormat="1" s="4">
       <c r="A3" s="5"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" customFormat="1" s="4">
       <c r="A4" s="5"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" customFormat="1" s="4">
       <c r="A5" s="5"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" customFormat="1" s="4">
       <c r="A6" s="5"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" customFormat="1" s="4">
       <c r="A7" s="5"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" customFormat="1" s="4">
       <c r="A8" s="5"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" customFormat="1" s="4">
       <c r="A9" s="5"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" customFormat="1" s="4">
       <c r="A10" s="5"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" customFormat="1" s="4">
       <c r="A11" s="5"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" customFormat="1" s="4">
       <c r="A12" s="5"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" customFormat="1" s="4">
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" customFormat="1" s="4">
       <c r="A14" s="5"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+    <row r="15" ht="24" customFormat="1" s="4">
       <c r="A15" s="5"/>
       <c r="I15" s="99" t="s">
         <v>5</v>
@@ -3617,15 +3623,15 @@
       <c r="P15" s="99"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" customFormat="1" s="4">
       <c r="A16" s="5"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" customFormat="1" s="4">
       <c r="A17" s="5"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" customFormat="1" s="4">
       <c r="A18" s="5"/>
       <c r="G18" s="100" t="s">
         <v>6</v>
@@ -3643,7 +3649,7 @@
       <c r="R18" s="102"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="G19" s="103" t="s">
         <v>74</v>
@@ -3661,7 +3667,7 @@
       <c r="R19" s="105"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" customFormat="1" s="4">
       <c r="A20" s="5"/>
       <c r="G20" s="106"/>
       <c r="H20" s="107"/>
@@ -3677,11 +3683,11 @@
       <c r="R20" s="108"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" customFormat="1" s="4">
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="22" ht="12" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="100" t="s">
         <v>7</v>
@@ -3699,7 +3705,7 @@
       <c r="R22" s="110"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="103" t="s">
         <v>75</v>
@@ -3717,7 +3723,7 @@
       <c r="R23" s="112"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" customFormat="1" s="4">
       <c r="A24" s="5"/>
       <c r="G24" s="113"/>
       <c r="H24" s="114"/>
@@ -3733,7 +3739,7 @@
       <c r="R24" s="115"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" customFormat="1" s="4">
       <c r="A25" s="5"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -3747,7 +3753,7 @@
       <c r="Q25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="26" ht="12" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3761,79 +3767,79 @@
       <c r="Q26" s="9"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" customFormat="1" s="4">
       <c r="A27" s="5"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" customFormat="1" s="4">
       <c r="A28" s="5"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" customFormat="1" s="4">
       <c r="A29" s="5"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" customFormat="1" s="4">
       <c r="A30" s="5"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" customFormat="1" s="4">
       <c r="A31" s="5"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" customFormat="1" s="4">
       <c r="A32" s="5"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" customFormat="1" s="4">
       <c r="A33" s="5"/>
       <c r="K33" s="8"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" customFormat="1" s="4">
       <c r="A34" s="5"/>
       <c r="K34" s="8"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" customFormat="1" s="4">
       <c r="A35" s="5"/>
       <c r="K35" s="8"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" customFormat="1" s="4">
       <c r="A36" s="5"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" customFormat="1" s="4">
       <c r="A37" s="5"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" customFormat="1" s="4">
       <c r="A38" s="5"/>
       <c r="K38" s="8"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" customFormat="1" s="4">
       <c r="A39" s="5"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" customFormat="1" s="4">
       <c r="A40" s="5"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" customFormat="1" s="4">
       <c r="A41" s="5"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" customFormat="1" s="4">
       <c r="A42" s="5"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" customFormat="1" s="4">
       <c r="A43" s="5"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" customFormat="1" s="4">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3859,7 +3865,7 @@
       <c r="W44" s="11"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="49">
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -3869,7 +3875,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="50">
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -3879,7 +3885,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="51">
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -3889,7 +3895,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="52">
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -3899,7 +3905,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="53">
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -3909,7 +3915,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="54">
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -3940,7 +3946,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="14" customWidth="1"/>
@@ -4328,12 +4334,12 @@
     <col min="16134" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" s="79" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -4369,7 +4375,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -4377,67 +4383,67 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4454,11 +4460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:AV4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="64" width="2.125" style="24"/>
     <col min="65" max="65" width="3.625" style="24" customWidth="1"/>
@@ -4655,7 +4661,7 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4723,7 +4729,7 @@
       <c r="BM1" s="21"/>
       <c r="BN1" s="23"/>
     </row>
-    <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
         <v>10</v>
       </c>
@@ -4777,7 +4783,7 @@
       <c r="BM2" s="26"/>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="117"/>
@@ -4829,7 +4835,7 @@
       <c r="BM3" s="25"/>
       <c r="BN3" s="28"/>
     </row>
-    <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="118" t="s">
         <v>11</v>
       </c>
@@ -4913,7 +4919,7 @@
       <c r="BM4" s="134"/>
       <c r="BN4" s="135"/>
     </row>
-    <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="136" t="s">
         <v>16</v>
       </c>
@@ -4991,7 +4997,7 @@
       <c r="BM5" s="142"/>
       <c r="BN5" s="143"/>
     </row>
-    <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="65"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
@@ -5065,7 +5071,7 @@
       <c r="BM6" s="148"/>
       <c r="BN6" s="67"/>
     </row>
-    <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
@@ -5139,7 +5145,7 @@
       <c r="BM7" s="155"/>
       <c r="BN7" s="67"/>
     </row>
-    <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="65"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
@@ -5213,7 +5219,7 @@
       <c r="BM8" s="158"/>
       <c r="BN8" s="67"/>
     </row>
-    <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="65"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
@@ -5287,7 +5293,7 @@
       <c r="BM9" s="346"/>
       <c r="BN9" s="67"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -5361,7 +5367,7 @@
       <c r="BM10" s="158"/>
       <c r="BN10" s="67"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="65"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
@@ -5435,7 +5441,7 @@
       <c r="BM11" s="158"/>
       <c r="BN11" s="67"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="65"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
@@ -5509,7 +5515,7 @@
       <c r="BM12" s="158"/>
       <c r="BN12" s="67"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="65"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
@@ -5583,7 +5589,7 @@
       <c r="BM13" s="158"/>
       <c r="BN13" s="67"/>
     </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="65"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -5657,7 +5663,7 @@
       <c r="BM14" s="158"/>
       <c r="BN14" s="67"/>
     </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="65"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -5731,7 +5737,7 @@
       <c r="BM15" s="161"/>
       <c r="BN15" s="67"/>
     </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="65"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66"/>
@@ -5805,7 +5811,7 @@
       <c r="BM16" s="158"/>
       <c r="BN16" s="67"/>
     </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="65"/>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
@@ -5879,7 +5885,7 @@
       <c r="BM17" s="167"/>
       <c r="BN17" s="67"/>
     </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="65"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -5953,7 +5959,7 @@
       <c r="BM18" s="173"/>
       <c r="BN18" s="67"/>
     </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="65"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -6021,7 +6027,7 @@
       <c r="BM19" s="176"/>
       <c r="BN19" s="67"/>
     </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="65"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -6089,7 +6095,7 @@
       <c r="BM20" s="179"/>
       <c r="BN20" s="67"/>
     </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="65"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -6157,7 +6163,7 @@
       <c r="BM21" s="182"/>
       <c r="BN21" s="67"/>
     </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="65"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -6225,7 +6231,7 @@
       <c r="BM22" s="176"/>
       <c r="BN22" s="67"/>
     </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="65"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -6293,7 +6299,7 @@
       <c r="BM23" s="186"/>
       <c r="BN23" s="67"/>
     </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="65"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -6361,7 +6367,7 @@
       <c r="BM24" s="176"/>
       <c r="BN24" s="67"/>
     </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="65"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -6429,7 +6435,7 @@
       <c r="BM25" s="186"/>
       <c r="BN25" s="67"/>
     </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -6497,7 +6503,7 @@
       <c r="BM26" s="176"/>
       <c r="BN26" s="67"/>
     </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="65"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -6565,7 +6571,7 @@
       <c r="BM27" s="186"/>
       <c r="BN27" s="67"/>
     </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="65"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
@@ -6633,7 +6639,7 @@
       <c r="BM28" s="176"/>
       <c r="BN28" s="67"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="65"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -6701,7 +6707,7 @@
       <c r="BM29" s="186"/>
       <c r="BN29" s="67"/>
     </row>
-    <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="65"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -6769,7 +6775,7 @@
       <c r="BM30" s="176"/>
       <c r="BN30" s="67"/>
     </row>
-    <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="65"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66"/>
@@ -6837,7 +6843,7 @@
       <c r="BM31" s="176"/>
       <c r="BN31" s="67"/>
     </row>
-    <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="69"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -6905,7 +6911,7 @@
       <c r="BM32" s="188"/>
       <c r="BN32" s="72"/>
     </row>
-    <row r="33" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -6950,59 +6956,11 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE21:BM21"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE23:BM23"/>
-    <mergeCell ref="BE24:BM24"/>
-    <mergeCell ref="BE25:BM25"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AS18:BD18"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="BE16:BM16"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AS17:BD17"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:BD12"/>
-    <mergeCell ref="BE12:BM12"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -7015,11 +6973,59 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:BD12"/>
+    <mergeCell ref="BE12:BM12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS13:BD13"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="BE16:BM16"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AS18:BD18"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BE21:BM21"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE23:BM23"/>
+    <mergeCell ref="BE24:BM24"/>
+    <mergeCell ref="BE25:BM25"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7031,11 +7037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:N5"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:N4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="0.75" style="24" customWidth="1"/>
     <col min="2" max="33" width="2.125" style="24"/>
@@ -7295,7 +7301,7 @@
     <col min="16163" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7362,7 +7368,7 @@
       <c r="BL1" s="21"/>
       <c r="BM1" s="31"/>
     </row>
-    <row r="2" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
         <v>46</v>
       </c>
@@ -7415,7 +7421,7 @@
       <c r="BL2" s="26"/>
       <c r="BM2" s="31"/>
     </row>
-    <row r="3" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="117"/>
@@ -7466,7 +7472,7 @@
       <c r="BL3" s="25"/>
       <c r="BM3" s="32"/>
     </row>
-    <row r="4" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="189" t="s">
         <v>11</v>
       </c>
@@ -7551,7 +7557,7 @@
       <c r="BL4" s="205"/>
       <c r="BM4" s="33"/>
     </row>
-    <row r="5" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="206" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +7634,7 @@
       <c r="BL5" s="212"/>
       <c r="BM5" s="34"/>
     </row>
-    <row r="6" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="35"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -7695,7 +7701,7 @@
       <c r="BL6" s="218"/>
       <c r="BM6" s="31"/>
     </row>
-    <row r="7" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="37"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -7762,7 +7768,7 @@
       <c r="BL7" s="36"/>
       <c r="BM7" s="31"/>
     </row>
-    <row r="8" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="37"/>
       <c r="B8" s="41"/>
       <c r="C8" s="219"/>
@@ -7829,7 +7835,7 @@
       <c r="BL8" s="42"/>
       <c r="BM8" s="31"/>
     </row>
-    <row r="9" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="37"/>
       <c r="B9" s="43"/>
       <c r="C9" s="220"/>
@@ -7896,7 +7902,7 @@
       <c r="BL9" s="42"/>
       <c r="BM9" s="31"/>
     </row>
-    <row r="10" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="37"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -7963,7 +7969,7 @@
       <c r="BL10" s="42"/>
       <c r="BM10" s="31"/>
     </row>
-    <row r="11" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="37"/>
       <c r="B11" s="43"/>
       <c r="C11" s="41" t="s">
@@ -8032,7 +8038,7 @@
       <c r="BL11" s="41"/>
       <c r="BM11" s="31"/>
     </row>
-    <row r="12" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="37"/>
       <c r="B12" s="43"/>
       <c r="C12" s="41"/>
@@ -8101,7 +8107,7 @@
       <c r="BL12" s="223"/>
       <c r="BM12" s="31"/>
     </row>
-    <row r="13" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="37"/>
       <c r="B13" s="43"/>
       <c r="C13" s="41"/>
@@ -8168,7 +8174,7 @@
       <c r="BL13" s="225"/>
       <c r="BM13" s="31"/>
     </row>
-    <row r="14" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="37"/>
       <c r="B14" s="43"/>
       <c r="C14" s="41"/>
@@ -8237,7 +8243,7 @@
       <c r="BL14" s="225"/>
       <c r="BM14" s="31"/>
     </row>
-    <row r="15" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="37"/>
       <c r="B15" s="43"/>
       <c r="C15" s="41"/>
@@ -8304,7 +8310,7 @@
       <c r="BL15" s="225"/>
       <c r="BM15" s="31"/>
     </row>
-    <row r="16" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="37"/>
       <c r="B16" s="43"/>
       <c r="C16" s="41"/>
@@ -8371,7 +8377,7 @@
       <c r="BL16" s="225"/>
       <c r="BM16" s="31"/>
     </row>
-    <row r="17" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="37"/>
       <c r="B17" s="43"/>
       <c r="C17" s="41"/>
@@ -8438,7 +8444,7 @@
       <c r="BL17" s="46"/>
       <c r="BM17" s="31"/>
     </row>
-    <row r="18" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="37"/>
       <c r="B18" s="43"/>
       <c r="C18" s="41"/>
@@ -8507,7 +8513,7 @@
       <c r="BL18" s="223"/>
       <c r="BM18" s="31"/>
     </row>
-    <row r="19" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="37"/>
       <c r="B19" s="43"/>
       <c r="C19" s="41"/>
@@ -8574,7 +8580,7 @@
       <c r="BL19" s="49"/>
       <c r="BM19" s="31"/>
     </row>
-    <row r="20" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="37"/>
       <c r="B20" s="43"/>
       <c r="C20" s="41"/>
@@ -8645,7 +8651,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="31"/>
     </row>
-    <row r="21" spans="1:65" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A21" s="80"/>
       <c r="B21" s="43"/>
       <c r="C21" s="41"/>
@@ -8716,7 +8722,7 @@
       <c r="BL21" s="82"/>
       <c r="BM21" s="83"/>
     </row>
-    <row r="22" spans="1:65" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A22" s="80"/>
       <c r="B22" s="43"/>
       <c r="C22" s="41"/>
@@ -8785,7 +8791,7 @@
       <c r="BL22" s="82"/>
       <c r="BM22" s="83"/>
     </row>
-    <row r="23" spans="1:65" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A23" s="80"/>
       <c r="B23" s="43"/>
       <c r="C23" s="41"/>
@@ -8854,7 +8860,7 @@
       <c r="BL23" s="82"/>
       <c r="BM23" s="83"/>
     </row>
-    <row r="24" spans="1:65" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A24" s="80"/>
       <c r="B24" s="43"/>
       <c r="C24" s="41"/>
@@ -8921,7 +8927,7 @@
       <c r="BL24" s="82"/>
       <c r="BM24" s="83"/>
     </row>
-    <row r="25" spans="1:65" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A25" s="80"/>
       <c r="B25" s="43"/>
       <c r="C25" s="41"/>
@@ -8992,7 +8998,7 @@
       <c r="BL25" s="82"/>
       <c r="BM25" s="83"/>
     </row>
-    <row r="26" spans="1:65" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A26" s="80"/>
       <c r="B26" s="43"/>
       <c r="C26" s="41"/>
@@ -9061,7 +9067,7 @@
       <c r="BL26" s="82"/>
       <c r="BM26" s="83"/>
     </row>
-    <row r="27" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="37"/>
       <c r="B27" s="43"/>
       <c r="C27" s="41"/>
@@ -9128,7 +9134,7 @@
       <c r="BL27" s="51"/>
       <c r="BM27" s="31"/>
     </row>
-    <row r="28" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="37"/>
       <c r="B28" s="43"/>
       <c r="C28" s="41"/>
@@ -9195,7 +9201,7 @@
       <c r="BL28" s="54"/>
       <c r="BM28" s="31"/>
     </row>
-    <row r="29" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="37"/>
       <c r="B29" s="43"/>
       <c r="C29" s="41"/>
@@ -9262,7 +9268,7 @@
       <c r="BL29" s="43"/>
       <c r="BM29" s="31"/>
     </row>
-    <row r="30" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="37"/>
       <c r="B30" s="43"/>
       <c r="C30" s="41"/>
@@ -9329,7 +9335,7 @@
       <c r="BL30" s="43"/>
       <c r="BM30" s="31"/>
     </row>
-    <row r="31" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="37"/>
       <c r="B31" s="43"/>
       <c r="C31" s="41"/>
@@ -9396,7 +9402,7 @@
       <c r="BL31" s="43"/>
       <c r="BM31" s="31"/>
     </row>
-    <row r="32" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="37"/>
       <c r="B32" s="43"/>
       <c r="C32" s="41"/>
@@ -9463,7 +9469,7 @@
       <c r="BL32" s="43"/>
       <c r="BM32" s="31"/>
     </row>
-    <row r="33" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="55"/>
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
@@ -9532,16 +9538,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D13:BL13"/>
-    <mergeCell ref="D14:BL14"/>
-    <mergeCell ref="D15:BL15"/>
-    <mergeCell ref="D16:BL16"/>
-    <mergeCell ref="D18:BL18"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:BC6"/>
-    <mergeCell ref="BD6:BL6"/>
-    <mergeCell ref="C8:BK9"/>
-    <mergeCell ref="D12:BL12"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -9554,11 +9555,16 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:BC6"/>
+    <mergeCell ref="BD6:BL6"/>
+    <mergeCell ref="C8:BK9"/>
+    <mergeCell ref="D12:BL12"/>
+    <mergeCell ref="D13:BL13"/>
+    <mergeCell ref="D14:BL14"/>
+    <mergeCell ref="D15:BL15"/>
+    <mergeCell ref="D16:BL16"/>
+    <mergeCell ref="D18:BL18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9569,11 +9575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:O4"/>
+    <sheetView showGridLines="false" zoomScale="160" zoomScaleNormal="160" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="M9" sqref="M9:P9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="11" width="2.125" style="24"/>
     <col min="12" max="12" width="2" style="24" bestFit="1" customWidth="1"/>
@@ -9708,7 +9714,7 @@
     <col min="16157" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -9776,7 +9782,7 @@
       <c r="BM1" s="21"/>
       <c r="BN1" s="23"/>
     </row>
-    <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
         <v>50</v>
       </c>
@@ -9832,7 +9838,7 @@
       <c r="BM2" s="26"/>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="226"/>
       <c r="B3" s="227"/>
       <c r="C3" s="227"/>
@@ -9900,7 +9906,7 @@
       <c r="BM3" s="57"/>
       <c r="BN3" s="58"/>
     </row>
-    <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="228" t="s">
         <v>11</v>
       </c>
@@ -9984,7 +9990,7 @@
       <c r="BM4" s="205"/>
       <c r="BN4" s="244"/>
     </row>
-    <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="206" t="s">
         <v>16</v>
       </c>
@@ -10060,7 +10066,7 @@
       <c r="BM5" s="212"/>
       <c r="BN5" s="213"/>
     </row>
-    <row r="6" spans="1:66" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="3">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -10128,7 +10134,7 @@
       <c r="BM6" s="75"/>
       <c r="BN6" s="75"/>
     </row>
-    <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="245" t="s">
         <v>51</v>
       </c>
@@ -10202,7 +10208,7 @@
       <c r="BM7" s="249"/>
       <c r="BN7" s="255"/>
     </row>
-    <row r="8" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="24">
       <c r="A8" s="60" t="s">
         <v>54</v>
       </c>
@@ -10290,7 +10296,7 @@
       <c r="BM8" s="256"/>
       <c r="BN8" s="257"/>
     </row>
-    <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="61">
         <v>1</v>
       </c>
@@ -10380,7 +10386,7 @@
       <c r="BM9" s="76"/>
       <c r="BN9" s="77"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="61">
         <v>2</v>
       </c>
@@ -10468,7 +10474,7 @@
       <c r="BM10" s="76"/>
       <c r="BN10" s="77"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="61">
         <v>3</v>
       </c>
@@ -10556,7 +10562,7 @@
       <c r="BM11" s="76"/>
       <c r="BN11" s="77"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="61">
         <v>4</v>
       </c>
@@ -10644,7 +10650,7 @@
       <c r="BM12" s="76"/>
       <c r="BN12" s="77"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="61">
         <v>5</v>
       </c>
@@ -10732,7 +10738,7 @@
       <c r="BM13" s="76"/>
       <c r="BN13" s="77"/>
     </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="61">
         <v>6</v>
       </c>
@@ -10820,7 +10826,7 @@
       <c r="BM14" s="76"/>
       <c r="BN14" s="77"/>
     </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="61">
         <v>7</v>
       </c>
@@ -10908,7 +10914,7 @@
       <c r="BM15" s="76"/>
       <c r="BN15" s="77"/>
     </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="61">
         <v>8</v>
       </c>
@@ -10996,7 +11002,7 @@
       <c r="BM16" s="76"/>
       <c r="BN16" s="77"/>
     </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="61">
         <v>9</v>
       </c>
@@ -11086,7 +11092,7 @@
       <c r="BM17" s="76"/>
       <c r="BN17" s="77"/>
     </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="61">
         <v>9</v>
       </c>
@@ -11172,181 +11178,89 @@
       <c r="BM18" s="76"/>
       <c r="BN18" s="77"/>
     </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="62"/>
       <c r="B19" s="62"/>
     </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="62"/>
       <c r="B20" s="62"/>
     </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
     </row>
-    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="15">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
     </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
     </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="62"/>
       <c r="B24" s="62"/>
     </row>
-    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="15">
       <c r="A25" s="62"/>
       <c r="B25" s="62"/>
     </row>
-    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="15">
       <c r="A26" s="62"/>
       <c r="B26" s="62"/>
     </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="62"/>
       <c r="B27" s="62"/>
     </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="62"/>
       <c r="B28" s="62"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
     </row>
-    <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="302"/>
       <c r="B30" s="302"/>
     </row>
-    <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="302"/>
       <c r="B31" s="302"/>
     </row>
-    <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="302"/>
       <c r="B32" s="302"/>
     </row>
-    <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="302"/>
       <c r="B33" s="302"/>
     </row>
-    <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="12">
       <c r="A34" s="302"/>
       <c r="B34" s="302"/>
     </row>
-    <row r="35" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" customHeight="1" ht="12">
       <c r="A35" s="302"/>
       <c r="B35" s="302"/>
     </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" customHeight="1" ht="30">
       <c r="A36" s="302"/>
       <c r="B36" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="AO18:BL18"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AO16:BL16"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AO15:BL15"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
@@ -11368,15 +11282,107 @@
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AO15:BL15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AO16:BL16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="AO17:BL17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="AO18:BL18"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11387,20 +11393,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView showGridLines="false" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="AM22" sqref="AM22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.125" style="24"/>
-    <col min="2" max="9" width="2.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="2.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="2.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="2.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="2.375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="2.375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="2.375" style="24" customWidth="1"/>
     <col min="10" max="10" width="6.375" style="24" customWidth="1"/>
-    <col min="11" max="12" width="2.375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="2.375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="2.375" style="24" customWidth="1"/>
     <col min="13" max="13" width="2.75" style="24" customWidth="1"/>
-    <col min="14" max="15" width="2.375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="2.375" style="24" customWidth="1"/>
     <col min="16" max="44" width="2.125" style="24"/>
-    <col min="45" max="65" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="1.875" style="24" customWidth="1"/>
     <col min="67" max="321" width="2.125" style="24"/>
     <col min="322" max="322" width="1.875" style="24" customWidth="1"/>
@@ -11531,7 +11566,7 @@
     <col min="16195" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="10">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -11601,7 +11636,7 @@
       <c r="BM1" s="21"/>
       <c r="BN1" s="23"/>
     </row>
-    <row r="2" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="10">
       <c r="A2" s="116" t="s">
         <v>70</v>
       </c>
@@ -11657,7 +11692,7 @@
       <c r="BM2" s="26"/>
       <c r="BN2" s="27"/>
     </row>
-    <row r="3" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" ht="10">
       <c r="A3" s="226"/>
       <c r="B3" s="227"/>
       <c r="C3" s="227"/>
@@ -11725,7 +11760,7 @@
       <c r="BM3" s="57"/>
       <c r="BN3" s="58"/>
     </row>
-    <row r="4" spans="1:66" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="18">
       <c r="A4" s="228" t="s">
         <v>11</v>
       </c>
@@ -11809,7 +11844,7 @@
       <c r="BM4" s="205"/>
       <c r="BN4" s="244"/>
     </row>
-    <row r="5" spans="1:66" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="5" ht="18">
       <c r="A5" s="206" t="s">
         <v>16</v>
       </c>
@@ -11888,7 +11923,7 @@
       <c r="BM5" s="212"/>
       <c r="BN5" s="213"/>
     </row>
-    <row r="6" spans="1:66" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="10">
       <c r="A6" s="96"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -11956,7 +11991,7 @@
       <c r="BM6" s="59"/>
       <c r="BN6" s="63"/>
     </row>
-    <row r="7" spans="1:66" s="64" customFormat="1" ht="11.25" x14ac:dyDescent="0.4">
+    <row r="7" ht="10" customFormat="1" s="64">
       <c r="A7" s="98" t="s">
         <v>0</v>
       </c>
@@ -12032,7 +12067,7 @@
       <c r="BM7" s="307"/>
       <c r="BN7" s="308"/>
     </row>
-    <row r="8" spans="1:66" s="38" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="9" customFormat="1" s="38">
       <c r="A8" s="97">
         <v>1</v>
       </c>
@@ -12108,7 +12143,7 @@
       <c r="BM8" s="315"/>
       <c r="BN8" s="316"/>
     </row>
-    <row r="9" spans="1:66" s="38" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="9" customFormat="1" s="38">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -12184,7 +12219,7 @@
       <c r="BM9" s="323"/>
       <c r="BN9" s="324"/>
     </row>
-    <row r="10" spans="1:66" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="10" ht="12">
       <c r="A10" s="89">
         <v>3</v>
       </c>
@@ -12260,7 +12295,7 @@
       <c r="BM10" s="327"/>
       <c r="BN10" s="328"/>
     </row>
-    <row r="11" spans="1:66" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="11" ht="12">
       <c r="A11" s="89">
         <v>4</v>
       </c>
@@ -12336,7 +12371,7 @@
       <c r="BM11" s="329"/>
       <c r="BN11" s="320"/>
     </row>
-    <row r="12" spans="1:66" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="11">
       <c r="A12" s="89">
         <v>5</v>
       </c>
@@ -12412,7 +12447,7 @@
       <c r="BM12" s="332"/>
       <c r="BN12" s="333"/>
     </row>
-    <row r="13" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="15">
       <c r="A13" s="89">
         <v>6</v>
       </c>
@@ -12488,7 +12523,7 @@
       <c r="BM13" s="323"/>
       <c r="BN13" s="324"/>
     </row>
-    <row r="14" spans="1:66" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="14" ht="12">
       <c r="A14" s="91">
         <v>7</v>
       </c>
@@ -12566,27 +12601,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="P13:AR13"/>
-    <mergeCell ref="AS13:BN13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="AS14:BN14"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="AS11:BN11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="P12:AR12"/>
-    <mergeCell ref="AS12:BN12"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="AS10:BN10"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -12599,11 +12618,27 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="AS7:BN7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS9:BN9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="AS10:BN10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="AS11:BN11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="P12:AR12"/>
+    <mergeCell ref="AS12:BN12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="P13:AR13"/>
+    <mergeCell ref="AS13:BN13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="AS14:BN14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
